--- a/KNET_TSP_review.xlsx
+++ b/KNET_TSP_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\learning\ETH_master\科研\wireless_comm_AI\loeliger\paper\KNet_TSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C4540-58EB-4A47-85AA-44A3B6D820F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3270DCC-3962-4507-8846-3FE92A52926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
   <si>
     <t>10,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <t>H Non-linear transform, test set size N_T=200, traj length T = 20</t>
   </si>
   <si>
-    <t xml:space="preserve">KNet J=5, train on T=100 (n_Epochs=500, n_Batch=100, learningRate=5e-3, weightDecay=1e-4) [dB] </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Knet New architecture J=2, train on T=2000 (n_Epochs=200, n_Batch=10, learningRate=1e-3, weightDecay=1e-6) [dB] </t>
   </si>
   <si>
@@ -407,9 +403,6 @@
   </si>
   <si>
     <t>True Observation matrix H:[[ 0.9848, -0.1736],[ 0.1736,  0.9848]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knet New architecture J=2 std [dB] </t>
   </si>
   <si>
     <t>Estimated Observation matrix H_hat: [[ 0.9849, -0.1745], [ 0.1735,  0.9868]]</t>
@@ -518,6 +511,30 @@
   </si>
   <si>
     <t>Non-linear synthetic model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNet J=5, train on T=100 (n_Epochs=500, n_Batch=100, learningRate=5e-3, weightDecay=1e-4) [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knet New architecture J=2 std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF J=2 std [linear] </t>
+  </si>
+  <si>
+    <t>PF J=5 std [linear]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=2 std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=5 std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF J=2 std [linear] </t>
+  </si>
+  <si>
+    <t>EKF J=5 std [linear]</t>
   </si>
 </sst>
 </file>
@@ -668,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -757,15 +774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -796,79 +804,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -966,18 +906,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -985,14 +913,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1031,26 +959,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,9 +1007,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1392,17 +1301,17 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1">
@@ -1413,27 +1322,27 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10">
         <v>2.7555999999999998</v>
@@ -1450,14 +1359,14 @@
       <c r="F6" s="10">
         <v>-37.323900000000002</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="66">
         <f>6.41656279563903/200</f>
         <v>3.2082813978195152E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10">
         <v>-2.9577</v>
@@ -1474,11 +1383,11 @@
       <c r="F7" s="10">
         <v>-43.376899999999999</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10">
         <v>14.502800000000001</v>
@@ -1495,14 +1404,14 @@
       <c r="F8" s="10">
         <v>-25.504300000000001</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="66">
         <f>6.19488716125488/200</f>
         <v>3.0974435806274399E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="10">
         <v>15.3818</v>
@@ -1519,11 +1428,11 @@
       <c r="F9" s="10">
         <v>-24.300999999999998</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="10">
         <v>2.8664999999999998</v>
@@ -1531,94 +1440,94 @@
       <c r="C10" s="1">
         <v>-7.3741000000000003</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="69">
         <v>-17.207899999999999</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="69">
         <v>-27.093499999999999</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="69">
         <v>-37.189700000000002</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="66">
         <f>14.5050523281097/200</f>
         <v>7.2525261640548497E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="10">
         <v>-2.9056999999999999</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="69">
         <v>-13.275499999999999</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="69">
         <v>-23.241700000000002</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="69">
         <v>-32.922600000000003</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="69">
         <v>-43.222700000000003</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="81">
+        <v>100</v>
+      </c>
+      <c r="B12" s="69">
         <v>8.6738999999999997</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="69">
         <v>-6.5022000000000002</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="69">
         <v>-16.3489</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="69">
         <v>-26.622900000000001</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="69">
         <v>-36.197499999999998</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="66">
         <f>14.6158831119537/200</f>
         <v>7.3079415559768504E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="82">
+        <v>110</v>
+      </c>
+      <c r="B13" s="70">
         <v>5.5907</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="67">
         <v>-12.0694</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="67">
         <v>-21.97</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="67">
         <v>-32.514299999999999</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="67">
         <v>-42.2667</v>
       </c>
-      <c r="G13" s="80"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1">
@@ -1629,27 +1538,27 @@
         <v>9</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="65" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="10">
         <v>2.7427999999999999</v>
@@ -1666,14 +1575,14 @@
       <c r="F21" s="10">
         <v>-37.272300000000001</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="66">
         <f>10.0545666217803/200</f>
         <v>5.0272833108901495E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="10">
         <v>-3.4327000000000001</v>
@@ -1690,7 +1599,7 @@
       <c r="F22" s="10">
         <v>-43.088500000000003</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
@@ -1699,11 +1608,11 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="78"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="10">
         <v>10.8751</v>
@@ -1720,14 +1629,14 @@
       <c r="F24" s="10">
         <v>-28.922799999999999</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="66">
         <f>10.119904756546/200</f>
         <v>5.0599523782729999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="10">
         <v>10.648400000000001</v>
@@ -1744,7 +1653,7 @@
       <c r="F25" s="10">
         <v>-29.722200000000001</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
@@ -1753,166 +1662,166 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="78"/>
+      <c r="G26" s="66"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="81">
+        <v>107</v>
+      </c>
+      <c r="B27" s="69">
         <v>2.8641000000000001</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="69">
         <v>-7.1985999999999999</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="69">
         <v>-17.209299999999999</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="69">
         <v>-27.149699999999999</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="69">
         <v>-36.924700000000001</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="66">
         <f>23.2167038917541/200</f>
         <v>0.1160835194587705</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="81">
+        <v>115</v>
+      </c>
+      <c r="B28" s="69">
         <v>-3.4102999999999999</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="69">
         <v>-13.260999999999999</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="69">
         <v>-23.144600000000001</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="69">
         <v>-33.285899999999998</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="69">
         <v>-42.896900000000002</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="78"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1">
       <c r="A30" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="86">
+        <v>113</v>
+      </c>
+      <c r="B30" s="74">
         <v>4.5346000000000002</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="74">
         <v>-6.2085999999999997</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="69">
         <v>-16.321000000000002</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="74">
         <v>-26.735700000000001</v>
       </c>
-      <c r="F30" s="86">
+      <c r="F30" s="74">
         <v>-36.0501</v>
       </c>
-      <c r="G30" s="87">
+      <c r="G30" s="75">
         <f>23.7544600963592/200</f>
         <v>0.118772300481796</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="81">
+        <v>114</v>
+      </c>
+      <c r="B31" s="69">
         <v>-1.4903</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="69">
         <v>-12.162599999999999</v>
       </c>
       <c r="D31" s="1">
         <v>-22.052</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="69">
         <v>-33.043300000000002</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="69">
         <v>-42.5334</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="78"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="66"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="81">
+        <v>108</v>
+      </c>
+      <c r="B33" s="69">
         <v>2.9352999999999998</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="69">
         <v>-7.2027999999999999</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="69">
         <v>-17.222799999999999</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="69">
         <v>-26.9771</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="69">
         <v>-37.169800000000002</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="66"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1">
       <c r="A34" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="82">
+        <v>116</v>
+      </c>
+      <c r="B34" s="70">
         <v>-3.2262</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="67">
         <v>-13.405900000000001</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="67">
         <v>-23.091999999999999</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="67">
         <v>-33.152799999999999</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="67">
         <v>-42.952599999999997</v>
       </c>
-      <c r="G34" s="80"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD977D6-8006-44BF-9C76-3C9C6EE31F03}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -1937,7 +1846,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="12"/>
@@ -1948,7 +1857,7 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="12"/>
@@ -1959,7 +1868,7 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="12"/>
@@ -2131,7 +2040,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2145,7 +2054,7 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="63"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2461,63 +2370,63 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="44">
         <v>30</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="44">
         <v>30</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="44">
         <v>25</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="44">
         <v>20</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="45">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1"/>
     <row r="35" spans="1:6">
-      <c r="A35" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="99">
+      <c r="A35" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="87">
         <v>-7.2525000000000004</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="91">
         <v>-13.189399999999999</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="88">
         <v>-19.215299999999999</v>
       </c>
-      <c r="E35" s="103">
+      <c r="E35" s="91">
         <v>-39.126100000000001</v>
       </c>
-      <c r="F35" s="102">
+      <c r="F35" s="90">
         <v>-59.096299999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="1">
         <v>-16.5199</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="74">
         <v>-22.1448</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="69">
         <v>-27.907399999999999</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="74">
         <v>-48.319200000000002</v>
       </c>
-      <c r="F36" s="87">
+      <c r="F36" s="75">
         <v>-67.925799999999995</v>
       </c>
     </row>
@@ -2527,13 +2436,13 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="78"/>
+      <c r="F37" s="66"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="101">
+        <v>150</v>
+      </c>
+      <c r="B38" s="89">
         <v>-6.6182999999999996</v>
       </c>
       <c r="C38" s="10">
@@ -2545,27 +2454,27 @@
       <c r="E38" s="10">
         <v>-35.239199999999997</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="66">
         <v>-45.293900000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="79">
+        <v>148</v>
+      </c>
+      <c r="B39" s="67">
         <v>-16.161999999999999</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="70">
         <v>-21.2652</v>
       </c>
-      <c r="D39" s="82">
+      <c r="D39" s="70">
         <v>-25.541599999999999</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="70">
         <v>-43.775100000000002</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="68">
         <v>-53.298900000000003</v>
       </c>
     </row>
@@ -2580,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3000,166 +2909,160 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>3</v>
+      <c r="C27" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28">
         <v>-10.4472</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28">
         <v>-20.370799999999999</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28">
         <v>-30.398399999999999</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28">
         <v>-40.393700000000003</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="66">
         <v>-49.8947</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="43">
-        <v>-23.1279</v>
-      </c>
-      <c r="C29" s="43">
-        <v>-32.644799999999996</v>
-      </c>
-      <c r="D29" s="43">
-        <v>-42.8185</v>
-      </c>
-      <c r="E29" s="43">
-        <v>-52.9345</v>
-      </c>
-      <c r="F29" s="44">
-        <v>-63.1145</v>
+      <c r="A29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29">
+        <f>10^(-23.1279/10)</f>
+        <v>4.8664246130096294E-3</v>
+      </c>
+      <c r="C29">
+        <f>10^(-32.6448/10)</f>
+        <v>5.4390117871859847E-4</v>
+      </c>
+      <c r="D29">
+        <f>10^(-42.8185/10)</f>
+        <v>5.2257664941334814E-5</v>
+      </c>
+      <c r="E29">
+        <f>10^(-52.9345/10)</f>
+        <v>5.0880339442835406E-6</v>
+      </c>
+      <c r="F29" s="66">
+        <f>10^(-63.1145/10)</f>
+        <v>4.8814629793201359E-7</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30">
         <v>18.239100000000001</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30">
         <v>28.239100000000001</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30">
         <v>38.239100000000001</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30">
         <v>48</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="66">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="2"/>
+      <c r="F31" s="66"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B32">
         <v>-10.364599999999999</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C32">
         <v>-19.473500000000001</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D32">
         <v>-23.626000000000001</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E32">
         <v>-33.509500000000003</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F32" s="66">
         <v>-41.149799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="43">
-        <v>-21.3749</v>
-      </c>
-      <c r="C32" s="43">
-        <v>-31.677499999999998</v>
-      </c>
-      <c r="D32" s="43">
-        <v>-39.564999999999998</v>
-      </c>
-      <c r="E32" s="43">
-        <v>-47.318899999999999</v>
-      </c>
-      <c r="F32" s="44">
-        <v>-56.848700000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="45">
-        <v>18.239100000000001</v>
-      </c>
-      <c r="C33" s="45">
-        <v>28.239100000000001</v>
-      </c>
-      <c r="D33" s="45">
-        <v>30.969100000000001</v>
-      </c>
-      <c r="E33" s="45">
-        <v>33.010300000000001</v>
-      </c>
-      <c r="F33" s="46">
-        <v>35.2288</v>
+        <v>158</v>
+      </c>
+      <c r="B33">
+        <f>10^(-21.3749/10)</f>
+        <v>7.2863495175985275E-3</v>
+      </c>
+      <c r="C33">
+        <f>10^(-31.6775/10)</f>
+        <v>6.7959472621206287E-4</v>
+      </c>
+      <c r="D33">
+        <f>10^(-39.565/10)</f>
+        <v>1.1053504693828426E-4</v>
+      </c>
+      <c r="E33">
+        <f>10^(-47.3189/10)</f>
+        <v>1.8540011534460069E-5</v>
+      </c>
+      <c r="F33" s="66">
+        <f>10^(-56.8487/10)</f>
+        <v>2.0659984911134943E-6</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1">
-      <c r="A34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17">
-        <v>-5.6181000000000001</v>
-      </c>
-      <c r="C34" s="17">
-        <v>-12.0389</v>
-      </c>
-      <c r="D34" s="17">
-        <v>-20.452500000000001</v>
-      </c>
-      <c r="E34" s="17">
-        <v>-30.0549</v>
-      </c>
-      <c r="F34" s="28">
-        <v>-40.004899999999999</v>
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>18.239100000000001</v>
+      </c>
+      <c r="C34">
+        <v>28.239100000000001</v>
+      </c>
+      <c r="D34">
+        <v>30.969100000000001</v>
+      </c>
+      <c r="E34">
+        <v>33.010300000000001</v>
+      </c>
+      <c r="F34" s="66">
+        <v>35.2288</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -3167,24 +3070,12 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1">
-      <c r="A35" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="17">
-        <v>-12.022600000000001</v>
-      </c>
-      <c r="C35" s="17">
-        <v>-20.712599999999998</v>
-      </c>
-      <c r="D35" s="17">
-        <v>-32.408700000000003</v>
-      </c>
-      <c r="E35" s="17">
-        <v>-46.951999999999998</v>
-      </c>
-      <c r="F35" s="28">
-        <v>-57.283099999999997</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" s="66"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -3192,311 +3083,387 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="16">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16">
-        <v>8</v>
-      </c>
-      <c r="D36" s="16">
-        <v>10</v>
-      </c>
-      <c r="E36" s="16">
-        <v>10</v>
-      </c>
-      <c r="F36" s="29">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>-5.6181000000000001</v>
+      </c>
+      <c r="C36">
+        <v>-12.0389</v>
+      </c>
+      <c r="D36">
+        <v>-20.452500000000001</v>
+      </c>
+      <c r="E36">
+        <v>-30.0549</v>
+      </c>
+      <c r="F36" s="66">
+        <v>-40.004899999999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1">
-      <c r="A37" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="17">
-        <v>-5.6073000000000004</v>
-      </c>
-      <c r="C37" s="17">
-        <v>-11.949199999999999</v>
-      </c>
-      <c r="D37" s="17">
-        <v>-20.449400000000001</v>
-      </c>
-      <c r="E37" s="17">
-        <v>-30.054300000000001</v>
-      </c>
-      <c r="F37" s="28">
-        <v>-39.9771</v>
+      <c r="A37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37">
+        <f>10^(-12.0226/10)</f>
+        <v>6.2768247030975013E-2</v>
+      </c>
+      <c r="C37">
+        <f>10^(-20.7126/10)</f>
+        <v>8.486722465038201E-3</v>
+      </c>
+      <c r="D37">
+        <f>10^(-32.4087/10)</f>
+        <v>5.7428834169188556E-4</v>
+      </c>
+      <c r="E37">
+        <f>10^(-46.952/10)</f>
+        <v>2.0174370856119214E-5</v>
+      </c>
+      <c r="F37" s="66">
+        <f>10^(-57.2831/10)</f>
+        <v>1.8693473213291681E-6</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1">
-      <c r="A38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="17">
-        <v>-12.0246</v>
-      </c>
-      <c r="C38" s="17">
-        <v>-18.514199999999999</v>
-      </c>
-      <c r="D38" s="17">
-        <v>-32.425600000000003</v>
-      </c>
-      <c r="E38" s="17">
-        <v>-46.9529</v>
-      </c>
-      <c r="F38" s="28">
-        <v>-56.845199999999998</v>
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" s="66">
+        <v>10</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="16">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16">
-        <v>10</v>
-      </c>
-      <c r="D39" s="16">
-        <v>10</v>
-      </c>
-      <c r="E39" s="16">
-        <v>10</v>
-      </c>
-      <c r="F39" s="29">
-        <v>15</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39" s="66"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="17">
-        <v>-9.7801298943258708</v>
-      </c>
-      <c r="C40" s="17">
-        <v>-18.126798081337402</v>
-      </c>
-      <c r="D40" s="17">
-        <v>-23.5428735704769</v>
-      </c>
-      <c r="E40" s="17">
-        <v>-30.158300000000001</v>
-      </c>
-      <c r="F40" s="28">
-        <v>-33.947899999999997</v>
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>-5.6073000000000004</v>
+      </c>
+      <c r="C40">
+        <v>-11.949199999999999</v>
+      </c>
+      <c r="D40">
+        <v>-20.449400000000001</v>
+      </c>
+      <c r="E40">
+        <v>-30.054300000000001</v>
+      </c>
+      <c r="F40" s="66">
+        <v>-39.9771</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="17">
-        <v>-17.3626</v>
-      </c>
-      <c r="C41" s="17">
-        <v>-32.033700000000003</v>
-      </c>
-      <c r="D41" s="17">
-        <v>-40.044400000000003</v>
-      </c>
-      <c r="E41" s="17">
-        <v>-47.186999999999998</v>
-      </c>
-      <c r="F41" s="28">
-        <v>-49.0274</v>
+      <c r="A41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41">
+        <f>10^(-12.0246/10)</f>
+        <v>6.2739347839785076E-2</v>
+      </c>
+      <c r="C41">
+        <f>10^(-18.5142/10)</f>
+        <v>1.4079265541323905E-2</v>
+      </c>
+      <c r="D41">
+        <f>10^(-32.4256/10)</f>
+        <v>5.720579164708396E-4</v>
+      </c>
+      <c r="E41">
+        <f>10^(-46.9529/10)</f>
+        <v>2.017019050078382E-5</v>
+      </c>
+      <c r="F41" s="66">
+        <f>10^(-56.8452/10)</f>
+        <v>2.0676641602734406E-6</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="16">
         <v>15</v>
       </c>
-      <c r="C42" s="16">
-        <v>20</v>
-      </c>
-      <c r="D42" s="16">
-        <v>20</v>
-      </c>
-      <c r="E42" s="16">
-        <v>20</v>
-      </c>
-      <c r="F42" s="29">
-        <v>20</v>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" s="66">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1">
-      <c r="A43" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="17">
-        <v>-9.6328417182840091</v>
-      </c>
-      <c r="C43" s="17">
-        <v>-17.951492539258499</v>
-      </c>
-      <c r="D43" s="17">
-        <v>-23.466352794354599</v>
-      </c>
-      <c r="E43" s="17">
-        <v>-30.110199999999999</v>
-      </c>
-      <c r="F43" s="28">
-        <v>-33.805129009756897</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" s="66"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1">
-      <c r="A44" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="17">
-        <v>-18.3842</v>
-      </c>
-      <c r="C44" s="17">
-        <v>-31.8005</v>
-      </c>
-      <c r="D44" s="17">
-        <v>-40.051200000000001</v>
-      </c>
-      <c r="E44" s="17">
-        <v>-46.649900000000002</v>
-      </c>
-      <c r="F44" s="28">
-        <v>-48.9452</v>
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>-9.7801298939999999</v>
+      </c>
+      <c r="C44">
+        <v>-18.12679808</v>
+      </c>
+      <c r="D44">
+        <v>-23.542873570000001</v>
+      </c>
+      <c r="E44">
+        <v>-30.158300000000001</v>
+      </c>
+      <c r="F44" s="66">
+        <v>-33.947899999999997</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1">
-      <c r="A45" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="30">
-        <v>15</v>
-      </c>
-      <c r="C45" s="30">
-        <v>20</v>
-      </c>
-      <c r="D45" s="30">
-        <v>20</v>
-      </c>
-      <c r="E45" s="30">
-        <v>20</v>
-      </c>
-      <c r="F45" s="31">
-        <v>20</v>
+    <row r="45" spans="1:10" s="4" customFormat="1">
+      <c r="A45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45">
+        <f>10^(-17.3626/10)</f>
+        <v>1.8354391880868341E-2</v>
+      </c>
+      <c r="C45">
+        <f>10^(-32.0337/10)</f>
+        <v>6.2608024427006413E-4</v>
+      </c>
+      <c r="D45">
+        <f>10^(-40.0444/10)</f>
+        <v>9.8982860429852159E-5</v>
+      </c>
+      <c r="E45">
+        <f>10^(-47.187/10)</f>
+        <v>1.9111729942271991E-5</v>
+      </c>
+      <c r="F45" s="66">
+        <f>10^(-49.0274/10)</f>
+        <v>1.2510077495434468E-5</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1">
-      <c r="A46" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="73">
-        <v>-9.3295999999999992</v>
-      </c>
-      <c r="C46" s="74">
-        <v>-19.7074</v>
-      </c>
-      <c r="D46" s="73">
-        <v>-27.0731</v>
-      </c>
-      <c r="E46" s="74">
-        <v>-35.414900000000003</v>
-      </c>
-      <c r="F46" s="75">
-        <v>-41.743099999999998</v>
+    <row r="46" spans="1:10" s="4" customFormat="1">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46" s="66">
+        <v>20</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:10" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A47" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="73">
-        <v>-21.508299999999998</v>
-      </c>
-      <c r="C47" s="74">
-        <v>-31.377800000000001</v>
-      </c>
-      <c r="D47" s="73">
-        <v>-40.8187</v>
-      </c>
-      <c r="E47" s="74">
-        <v>-48.7545</v>
-      </c>
-      <c r="F47" s="75">
-        <v>-57.733800000000002</v>
-      </c>
+    <row r="47" spans="1:10" s="21" customFormat="1">
+      <c r="A47" s="2"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" s="66"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:10" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A48" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="69">
-        <v>-9.7865000000000002</v>
-      </c>
-      <c r="C48" s="70">
-        <v>-19.745899999999999</v>
-      </c>
-      <c r="D48" s="69">
-        <v>-29.374300000000002</v>
-      </c>
-      <c r="E48" s="70">
-        <v>-39.676200000000001</v>
-      </c>
-      <c r="F48" s="71">
-        <v>-48.985799999999998</v>
+    <row r="48" spans="1:10" s="21" customFormat="1">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>-9.6328417179999999</v>
+      </c>
+      <c r="C48">
+        <v>-17.95149254</v>
+      </c>
+      <c r="D48">
+        <v>-23.466352789999998</v>
+      </c>
+      <c r="E48">
+        <v>-30.110199999999999</v>
+      </c>
+      <c r="F48" s="66">
+        <v>-33.805129010000002</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:10" ht="15" thickTop="1"/>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49">
+        <f>10^(-18.3842/10)</f>
+        <v>1.450707979979207E-2</v>
+      </c>
+      <c r="C49">
+        <f>10^(-31.8005/10)</f>
+        <v>6.6061738724186808E-4</v>
+      </c>
+      <c r="D49">
+        <f>10^(-40.0512/10)</f>
+        <v>9.882799850758317E-5</v>
+      </c>
+      <c r="E49">
+        <f>10^(-46.6499/10)</f>
+        <v>2.1627683227346757E-5</v>
+      </c>
+      <c r="F49" s="66">
+        <f>10^(-48.9452/10)</f>
+        <v>1.2749113867527216E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2"/>
+      <c r="F51" s="66"/>
+    </row>
     <row r="52" spans="1:10" s="4" customFormat="1">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
+      <c r="A52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52">
+        <v>-9.3295999999999992</v>
+      </c>
+      <c r="C52">
+        <v>-19.7074</v>
+      </c>
+      <c r="D52">
+        <v>-27.0731</v>
+      </c>
+      <c r="E52">
+        <v>-35.414900000000003</v>
+      </c>
+      <c r="F52" s="66">
+        <v>-41.743099999999998</v>
+      </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="54" spans="1:10" s="4" customFormat="1">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53">
+        <f>10^(-21.5083/10)</f>
+        <v>7.0659408894885763E-3</v>
+      </c>
+      <c r="C53">
+        <f>10^(-31.3778/10)</f>
+        <v>7.2814856841542028E-4</v>
+      </c>
+      <c r="D53">
+        <f>10^(-40.8187/10)</f>
+        <v>8.2819003375562614E-5</v>
+      </c>
+      <c r="E53">
+        <f>10^(-48.7545/10)</f>
+        <v>1.332140401816459E-5</v>
+      </c>
+      <c r="F53" s="66">
+        <f>10^(-57.7338/10)</f>
+        <v>1.6850779667031662E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1">
+      <c r="A54" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="67">
+        <v>-9.7865000000000002</v>
+      </c>
+      <c r="C54" s="67">
+        <v>-19.745899999999999</v>
+      </c>
+      <c r="D54" s="67">
+        <v>-29.374300000000002</v>
+      </c>
+      <c r="E54" s="67">
+        <v>-39.676200000000001</v>
+      </c>
+      <c r="F54" s="68">
+        <v>-48.985799999999998</v>
+      </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -3569,7 +3536,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="4"/>
@@ -3587,342 +3554,342 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickTop="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="51">
         <v>-10.3969</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="51">
         <v>-20.4054</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="51">
         <v>-30.499099999999999</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="52">
         <v>-40.451599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="51">
         <v>-21.119800000000001</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="51">
         <v>-30.9373</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="51">
         <v>-41.3782</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="52">
         <v>-51.372</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="51">
         <v>-9.7969000000000008</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="51">
         <v>-16.503499999999999</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="51">
         <v>-18.186599999999999</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="52">
         <v>-18.572099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="51">
         <v>-18.599900000000002</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="51">
         <v>-11.096500000000001</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="51">
         <v>-31.008400000000002</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="52">
         <v>-31.687799999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="54">
         <v>-0.5</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="54">
         <v>8.8605999999999998</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="54">
         <v>19.586099999999998</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="55">
         <v>29.208200000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="51">
         <v>-2.234</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="51">
         <v>-10.7912</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="51">
         <v>-13.5235</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="52">
         <v>-14.3246</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="51">
         <v>-5.1497000000000002</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="51">
         <v>-15.8362</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="51">
         <v>-16.200800000000001</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="52">
         <v>-16.408799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="54">
         <v>5</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="54">
         <v>30</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="54">
         <v>40</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="55">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="51">
         <v>-2.0808</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="51">
         <v>-6.9180000000000001</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="51">
         <v>-7.8898999999999999</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="52">
         <v>-8.0913000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="51">
         <v>-5.1775000000000002</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="51">
         <v>-15.7614</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="51">
         <v>-16.223299999999998</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="52">
         <v>-16.212900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="54">
         <v>5</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="54">
         <v>30</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="54">
         <v>40</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="55">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>-9.5612999999999992</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="51">
         <v>-8.6807999999999996</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="51">
         <v>-5.1993</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="52">
         <v>18.516400000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="51">
         <v>-13.7239</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="51">
         <v>-13.237299999999999</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="51">
         <v>-15.7448</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="52">
         <v>17.2118</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="54">
         <v>0</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="54">
         <v>10</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="54">
         <v>20</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="55">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="51">
         <v>-8.4837000000000007</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="51">
         <v>-0.17599999999999999</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="51">
         <v>15.2407</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="52">
         <v>19.867000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="51">
         <v>-8.4983000000000004</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="51">
         <v>7.3209</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="51">
         <v>16.171099999999999</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="52">
         <v>12.953900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="54">
         <v>0</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="54">
         <v>9</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="54">
         <v>15</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="55">
         <v>-10</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="87.5" thickBot="1">
-      <c r="A24" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="61">
+      <c r="A24" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="57">
         <v>-9.6280999999999999</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="57">
         <v>-18.165099999999999</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="57">
         <v>-27.324200000000001</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="58">
         <v>-34.035899999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29.5" thickBot="1">
-      <c r="A25" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="61">
+      <c r="A25" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="57">
         <v>-18.458300000000001</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="57">
         <v>-28.059200000000001</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="57">
         <v>-35.094299999999997</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="58">
         <v>-41.143000000000001</v>
       </c>
     </row>
@@ -3962,7 +3929,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="51"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3980,7 +3947,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -4000,320 +3967,320 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="62">
         <v>7.8064999999999998</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="62">
         <v>-2.1758999999999999</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="62">
         <v>-12.1477</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="62">
         <v>-22.175899999999999</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="52">
         <v>-32.2087</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="62">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="C8" s="62">
+        <v>-8.6218000000000004</v>
+      </c>
+      <c r="D8" s="62">
+        <v>-19.269600000000001</v>
+      </c>
+      <c r="E8" s="62">
+        <v>-28.8123</v>
+      </c>
+      <c r="F8" s="52">
+        <v>-38.834200000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="62">
+        <v>26.377800000000001</v>
+      </c>
+      <c r="C9" s="62">
+        <v>21.7849</v>
+      </c>
+      <c r="D9" s="62">
+        <v>14.5038</v>
+      </c>
+      <c r="E9" s="62">
+        <v>4.8361000000000001</v>
+      </c>
+      <c r="F9" s="52">
+        <v>-4.0190999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="66">
-        <v>0.93689999999999996</v>
-      </c>
-      <c r="C8" s="66">
-        <v>-8.6218000000000004</v>
-      </c>
-      <c r="D8" s="66">
-        <v>-19.269600000000001</v>
-      </c>
-      <c r="E8" s="66">
-        <v>-28.8123</v>
-      </c>
-      <c r="F8" s="56">
-        <v>-38.834200000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="66">
-        <v>26.377800000000001</v>
-      </c>
-      <c r="C9" s="66">
-        <v>21.7849</v>
-      </c>
-      <c r="D9" s="66">
-        <v>14.5038</v>
-      </c>
-      <c r="E9" s="66">
-        <v>4.8361000000000001</v>
-      </c>
-      <c r="F9" s="56">
-        <v>-4.0190999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="54" t="s">
+      <c r="B10" s="62">
+        <v>25.057700000000001</v>
+      </c>
+      <c r="C10" s="62">
+        <v>22.083300000000001</v>
+      </c>
+      <c r="D10" s="62">
+        <v>15.175800000000001</v>
+      </c>
+      <c r="E10" s="62">
+        <v>6.5293000000000001</v>
+      </c>
+      <c r="F10" s="52">
+        <v>-3.0579999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="63">
+        <v>-50</v>
+      </c>
+      <c r="C11" s="63">
+        <v>-40</v>
+      </c>
+      <c r="D11" s="63">
+        <v>-40</v>
+      </c>
+      <c r="E11" s="63">
+        <v>-40</v>
+      </c>
+      <c r="F11" s="55">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="62">
+        <v>9.4063999999999997</v>
+      </c>
+      <c r="C12" s="62">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="D12" s="62">
+        <v>-10.0245</v>
+      </c>
+      <c r="E12" s="62">
+        <v>-19.9282</v>
+      </c>
+      <c r="F12" s="52">
+        <v>-29.9406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="66">
-        <v>25.057700000000001</v>
-      </c>
-      <c r="C10" s="66">
-        <v>22.083300000000001</v>
-      </c>
-      <c r="D10" s="66">
-        <v>15.175800000000001</v>
-      </c>
-      <c r="E10" s="66">
-        <v>6.5293000000000001</v>
-      </c>
-      <c r="F10" s="56">
-        <v>-3.0579999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="67">
+      <c r="B13" s="62">
+        <v>2.2591000000000001</v>
+      </c>
+      <c r="C13" s="62">
+        <v>-8.1286000000000005</v>
+      </c>
+      <c r="D13" s="62">
+        <v>-17.468399999999999</v>
+      </c>
+      <c r="E13" s="62">
+        <v>-28.126200000000001</v>
+      </c>
+      <c r="F13" s="52">
+        <v>-37.471499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="63">
+        <v>0</v>
+      </c>
+      <c r="C14" s="63">
+        <v>10</v>
+      </c>
+      <c r="D14" s="63">
+        <v>40</v>
+      </c>
+      <c r="E14" s="63">
+        <v>50</v>
+      </c>
+      <c r="F14" s="55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="50"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="62">
+        <v>8.2987000000000002</v>
+      </c>
+      <c r="C18" s="62">
+        <v>-1.6517999999999999</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-11.684799999999999</v>
+      </c>
+      <c r="E18" s="62">
+        <v>-20.220300000000002</v>
+      </c>
+      <c r="F18" s="52">
+        <v>3.3294999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="62">
+        <v>1.7212000000000001</v>
+      </c>
+      <c r="C19" s="62">
+        <v>-8.8618000000000006</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-17.9877</v>
+      </c>
+      <c r="E19" s="62">
+        <v>-26.373000000000001</v>
+      </c>
+      <c r="F19" s="52">
+        <v>1.4460999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="63">
+        <v>-10</v>
+      </c>
+      <c r="C20" s="63">
+        <v>0</v>
+      </c>
+      <c r="D20" s="63">
+        <v>10</v>
+      </c>
+      <c r="E20" s="63">
+        <v>20</v>
+      </c>
+      <c r="F20" s="55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="62">
+        <v>24.845500000000001</v>
+      </c>
+      <c r="C21" s="62">
+        <v>20.907699999999998</v>
+      </c>
+      <c r="D21" s="62">
+        <v>14.231999999999999</v>
+      </c>
+      <c r="E21" s="62">
+        <v>11.933</v>
+      </c>
+      <c r="F21" s="52">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="62">
+        <v>23.434100000000001</v>
+      </c>
+      <c r="C22" s="62">
+        <v>19.6128</v>
+      </c>
+      <c r="D22" s="62">
+        <v>13.852</v>
+      </c>
+      <c r="E22" s="62">
+        <v>9.4754000000000005</v>
+      </c>
+      <c r="F22" s="52">
+        <v>2.7789999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="63">
         <v>-50</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C23" s="63">
         <v>-40</v>
       </c>
-      <c r="D11" s="67">
-        <v>-40</v>
-      </c>
-      <c r="E11" s="67">
-        <v>-40</v>
-      </c>
-      <c r="F11" s="59">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="66">
-        <v>9.4063999999999997</v>
-      </c>
-      <c r="C12" s="66">
-        <v>-0.14199999999999999</v>
-      </c>
-      <c r="D12" s="66">
-        <v>-10.0245</v>
-      </c>
-      <c r="E12" s="66">
-        <v>-19.9282</v>
-      </c>
-      <c r="F12" s="56">
-        <v>-29.9406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="66">
-        <v>2.2591000000000001</v>
-      </c>
-      <c r="C13" s="66">
-        <v>-8.1286000000000005</v>
-      </c>
-      <c r="D13" s="66">
-        <v>-17.468399999999999</v>
-      </c>
-      <c r="E13" s="66">
-        <v>-28.126200000000001</v>
-      </c>
-      <c r="F13" s="56">
-        <v>-37.471499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="67">
-        <v>0</v>
-      </c>
-      <c r="C14" s="67">
-        <v>10</v>
-      </c>
-      <c r="D14" s="67">
-        <v>40</v>
-      </c>
-      <c r="E14" s="67">
-        <v>50</v>
-      </c>
-      <c r="F14" s="59">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="54"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="59"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="66">
-        <v>8.2987000000000002</v>
-      </c>
-      <c r="C18" s="66">
-        <v>-1.6517999999999999</v>
-      </c>
-      <c r="D18" s="66">
-        <v>-11.684799999999999</v>
-      </c>
-      <c r="E18" s="66">
-        <v>-20.220300000000002</v>
-      </c>
-      <c r="F18" s="56">
-        <v>3.3294999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="66">
-        <v>1.7212000000000001</v>
-      </c>
-      <c r="C19" s="66">
-        <v>-8.8618000000000006</v>
-      </c>
-      <c r="D19" s="66">
-        <v>-17.9877</v>
-      </c>
-      <c r="E19" s="66">
-        <v>-26.373000000000001</v>
-      </c>
-      <c r="F19" s="56">
-        <v>1.4460999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="67">
-        <v>-10</v>
-      </c>
-      <c r="C20" s="67">
-        <v>0</v>
-      </c>
-      <c r="D20" s="67">
-        <v>10</v>
-      </c>
-      <c r="E20" s="67">
-        <v>20</v>
-      </c>
-      <c r="F20" s="59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="66">
-        <v>24.845500000000001</v>
-      </c>
-      <c r="C21" s="66">
-        <v>20.907699999999998</v>
-      </c>
-      <c r="D21" s="66">
-        <v>14.231999999999999</v>
-      </c>
-      <c r="E21" s="66">
-        <v>11.933</v>
-      </c>
-      <c r="F21" s="56">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="66">
-        <v>23.434100000000001</v>
-      </c>
-      <c r="C22" s="66">
-        <v>19.6128</v>
-      </c>
-      <c r="D22" s="66">
-        <v>13.852</v>
-      </c>
-      <c r="E22" s="66">
-        <v>9.4754000000000005</v>
-      </c>
-      <c r="F22" s="56">
-        <v>2.7789999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="67">
+      <c r="D23" s="63">
+        <v>-30</v>
+      </c>
+      <c r="E23" s="63">
         <v>-50</v>
       </c>
-      <c r="C23" s="67">
-        <v>-40</v>
-      </c>
-      <c r="D23" s="67">
-        <v>-30</v>
-      </c>
-      <c r="E23" s="67">
-        <v>-50</v>
-      </c>
-      <c r="F23" s="59">
+      <c r="F23" s="55">
         <v>30</v>
       </c>
     </row>
@@ -4321,39 +4288,39 @@
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="57">
         <v>14.5504</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="57">
         <v>6.7740999999999998</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="57">
         <v>-1.7727999999999999</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="57">
         <v>-10.568300000000001</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="64">
         <v>-15.237399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="61">
+        <v>133</v>
+      </c>
+      <c r="B25" s="57">
         <v>14.042</v>
       </c>
-      <c r="C25" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="61">
+      <c r="C25" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="57">
         <v>-15.2445</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="64">
         <v>-16.1021</v>
       </c>
     </row>
@@ -4377,36 +4344,36 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1">
         <v>-6.4321999999999999</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="78">
+      <c r="D5" s="66">
         <f>163.19012093544/30</f>
         <v>5.4396706978480003</v>
       </c>
@@ -4416,39 +4383,39 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1">
         <v>-23.079899999999999</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="78"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="78">
         <v>8.2391000000000005</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="78"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1">
         <v>-6.2519</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="78">
+      <c r="D8" s="66">
         <f>159.025561809539/30</f>
         <v>5.3008520603179665</v>
       </c>
@@ -4458,26 +4425,26 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1">
         <v>-23.04</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="78"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="78">
         <v>8.2391000000000005</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4486,7 +4453,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="78"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -4499,7 +4466,7 @@
         <v>-5.3365</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="78">
+      <c r="D12" s="66">
         <f>1888.39310669898/30</f>
         <v>62.946436889966002</v>
       </c>
@@ -4509,26 +4476,26 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1">
         <v>-18.8429</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="78"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1">
         <v>-5.2602000000000002</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="78">
+      <c r="D14" s="66">
         <f>1208.14818930625/30</f>
         <v>40.271606310208334</v>
       </c>
@@ -4538,13 +4505,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1">
         <v>-19.322900000000001</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4553,20 +4520,20 @@
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="78"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1">
         <v>-5.6829000000000001</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="78">
+      <c r="D17" s="66">
         <f>182.171656608581/30</f>
         <v>6.0723885536193665</v>
       </c>
@@ -4576,26 +4543,26 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1">
         <v>-19.779599999999999</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="78"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1">
         <v>-5.6588000000000003</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="78">
+      <c r="D19" s="66">
         <f>123.470252752304/30</f>
         <v>4.1156750917434666</v>
       </c>
@@ -4605,39 +4572,39 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1">
         <v>-19.760200000000001</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="78"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="90">
+      <c r="A21" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="78">
         <v>0.5</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="91">
+        <v>124</v>
+      </c>
+      <c r="B22" s="79">
         <v>-11.2842</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="78">
+      <c r="C22" s="80"/>
+      <c r="D22" s="66">
         <f>140.960460662841/30</f>
         <v>4.6986820220947001</v>
       </c>
@@ -4647,52 +4614,52 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="91">
+        <v>142</v>
+      </c>
+      <c r="B23" s="79">
         <v>-22.7239</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="78"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1">
         <v>-7.2462999999999997</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="78"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="93" t="s">
-        <v>146</v>
+      <c r="A25" s="81" t="s">
+        <v>144</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95">
+        <v>143</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83">
         <f>67.3678991794586/30</f>
         <v>2.2455966393152869</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1">
-      <c r="A26" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98">
+      <c r="A26" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86">
         <f>68.7375943660736/30</f>
         <v>2.2912531455357863</v>
       </c>
